--- a/data/test_cases.xlsx
+++ b/data/test_cases.xlsx
@@ -3,12 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="9200" windowWidth="28000"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="11620" windowWidth="28000"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="purchaser-setting" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="purchaser-setting" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -35,7 +34,29 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -44,6 +65,29 @@
       <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -56,17 +100,55 @@
     </font>
     <font>
       <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <sz val="12"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -80,23 +162,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -112,77 +178,10 @@
       <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -205,55 +204,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,127 +366,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,47 +416,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,16 +438,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,163 +467,205 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="20" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="17" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="19" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="17" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="20" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="33" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="34" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="11" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="34" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="12" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -672,6 +674,12 @@
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -696,12 +704,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1041,301 +1043,139 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="G7" pane="bottomLeft" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.830357142857141" defaultRowHeight="16.8" outlineLevelRow="2"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="8.16071428571429"/>
-    <col customWidth="1" max="2" min="2" style="6" width="10.6607142857143"/>
-    <col customWidth="1" max="3" min="3" style="14" width="37.8303571428571"/>
-    <col customWidth="1" max="4" min="4" style="14" width="13.6607142857143"/>
-    <col customWidth="1" max="5" min="5" style="14" width="9.330357142857141"/>
-    <col customWidth="1" max="6" min="6" style="6" width="20.1607142857143"/>
-    <col customWidth="1" max="7" min="7" style="6" width="50.1607142857143"/>
-    <col customWidth="1" max="9" min="8" style="6" width="48.1607142857143"/>
-    <col customWidth="1" max="10" min="10" style="6" width="10.3303571428571"/>
-    <col customWidth="1" max="16384" min="11" style="6" width="8.830357142857141"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>case_id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>interface</t>
-        </is>
-      </c>
-      <c r="C1" s="8" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="D1" s="8" t="inlineStr">
-        <is>
-          <t>api_name</t>
-        </is>
-      </c>
-      <c r="E1" s="8" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="F1" s="7" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" s="7" t="inlineStr">
-        <is>
-          <t>request_data</t>
-        </is>
-      </c>
-      <c r="H1" s="7" t="inlineStr">
-        <is>
-          <t>expected_data</t>
-        </is>
-      </c>
-      <c r="I1" s="7" t="inlineStr">
-        <is>
-          <t>server_return</t>
-        </is>
-      </c>
-      <c r="J1" s="7" t="inlineStr">
-        <is>
-          <t>assert</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>注册</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>正常注册（130号段6位密码）</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr">
-        <is>
-          <t>register</t>
-        </is>
-      </c>
-      <c r="E2" s="11" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" s="11" t="inlineStr">
-        <is>
-          <t>/member/register</t>
-        </is>
-      </c>
-      <c r="G2" s="9" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'#phone130#', 'pwd':'123456', 'regname':'baozi'}</t>
-        </is>
-      </c>
-      <c r="H2" s="9" t="inlineStr">
-        <is>
-          <t>{'status':1,  'code':'10001', 'data':None, 'msg':'注册成功'}</t>
-        </is>
-      </c>
-      <c r="I2" s="9" t="inlineStr">
-        <is>
-          <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '注册成功'}</t>
-        </is>
-      </c>
-      <c r="J2" s="9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K2" s="13" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
-      </c>
-      <c r="L2" s="13" t="n"/>
-      <c r="M2" s="15" t="n"/>
-      <c r="N2" s="13" t="n"/>
-      <c r="O2" s="13" t="n"/>
-      <c r="P2" s="13" t="n"/>
-      <c r="Q2" s="13" t="n"/>
-      <c r="R2" s="13" t="n"/>
-    </row>
-    <row r="3">
-      <c r="D3" s="6" t="n"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule dxfId="0" operator="between" priority="1" text="FAIL" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("FAIL",J1)))</formula>
-    </cfRule>
-    <cfRule dxfId="1" operator="between" priority="2" text="PASS" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("PASS",J1)))</formula>
-    </cfRule>
-    <cfRule dxfId="1" operator="between" priority="3" text="FAIL" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("FAIL",J1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.830357142857141" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="8.830357142857141"/>
-    <col customWidth="1" max="2" min="2" style="6" width="11.8303571428571"/>
-    <col customWidth="1" max="3" min="3" style="6" width="27.3303571428571"/>
-    <col customWidth="1" max="4" min="4" style="6" width="12"/>
-    <col customWidth="1" max="5" min="5" style="6" width="10.1607142857143"/>
-    <col customWidth="1" max="6" min="6" style="6" width="24.6607142857143"/>
-    <col customWidth="1" max="7" min="7" style="6" width="55.6607142857143"/>
-    <col customWidth="1" max="8" min="8" style="6" width="62.3571428571429"/>
-    <col customWidth="1" max="9" min="9" style="6" width="19.8303571428571"/>
-    <col customWidth="1" max="16384" min="10" style="6" width="8.830357142857141"/>
+    <col customWidth="1" max="1" min="1" style="9" width="8.830357142857141"/>
+    <col customWidth="1" max="2" min="2" style="9" width="11.8303571428571"/>
+    <col customWidth="1" max="3" min="3" style="9" width="27.3303571428571"/>
+    <col customWidth="1" max="4" min="4" style="9" width="12"/>
+    <col customWidth="1" max="5" min="5" style="9" width="10.1607142857143"/>
+    <col customWidth="1" max="6" min="6" style="9" width="24.6607142857143"/>
+    <col customWidth="1" max="7" min="7" style="9" width="55.6607142857143"/>
+    <col customWidth="1" max="8" min="8" style="9" width="62.3571428571429"/>
+    <col customWidth="1" max="9" min="9" style="9" width="19.8303571428571"/>
+    <col customWidth="1" max="16384" min="10" style="9" width="8.830357142857141"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>server_return</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="34" r="2">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>正常登录</t>
         </is>
       </c>
-      <c r="D2" s="11" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E2" s="11" t="inlineStr">
+      <c r="E2" s="14" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F2" s="14" t="inlineStr">
         <is>
           <t>/auth/login</t>
         </is>
       </c>
-      <c r="G2" s="9" t="inlineStr">
+      <c r="G2" s="12" t="inlineStr">
         <is>
           <t>{"phone":"15733100728","code":"123456"}</t>
         </is>
       </c>
-      <c r="H2" s="12" t="inlineStr">
+      <c r="H2" s="15" t="inlineStr">
         <is>
           <t>{ "code": 200,
  "msg": "ok"}</t>
         </is>
       </c>
-      <c r="I2" s="9" t="inlineStr">
+      <c r="I2" s="12" t="inlineStr">
         <is>
           <t>{'code': 200, 'msg': 'ok'}</t>
         </is>
       </c>
-      <c r="J2" s="9" t="inlineStr">
+      <c r="J2" s="12" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="K2" s="13" t="inlineStr">
+      <c r="K2" s="16" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
-      <c r="L2" s="13" t="n"/>
-      <c r="M2" s="13" t="n"/>
-      <c r="N2" s="13" t="n"/>
-      <c r="O2" s="13" t="n"/>
-      <c r="P2" s="13" t="n"/>
-      <c r="Q2" s="13" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
@@ -1351,134 +1191,134 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="9.142857142857141"/>
-    <col customWidth="1" max="2" min="2" style="2" width="16.3660714285714"/>
-    <col customWidth="1" max="3" min="3" style="2" width="18.4464285714286"/>
-    <col customWidth="1" max="4" min="4" style="2" width="18.7410714285714"/>
-    <col customWidth="1" max="5" min="5" style="2" width="9.142857142857141"/>
-    <col customWidth="1" max="8" min="6" style="2" width="21.7232142857143"/>
-    <col customWidth="1" max="9" min="9" style="2" width="40.625"/>
-    <col customWidth="1" max="10" min="10" style="2" width="26.9285714285714"/>
-    <col customWidth="1" max="11" min="11" style="2" width="23.3571428571429"/>
-    <col customWidth="1" max="16384" min="12" style="2" width="9.142857142857141"/>
+    <col customWidth="1" max="1" min="1" style="3" width="9.142857142857141"/>
+    <col customWidth="1" max="2" min="2" style="3" width="16.3660714285714"/>
+    <col customWidth="1" max="3" min="3" style="3" width="47.0178571428571"/>
+    <col customWidth="1" max="4" min="4" style="3" width="18.7410714285714"/>
+    <col customWidth="1" max="5" min="5" style="3" width="9.142857142857141"/>
+    <col customWidth="1" max="8" min="6" style="3" width="21.7232142857143"/>
+    <col customWidth="1" max="9" min="9" style="3" width="40.625"/>
+    <col customWidth="1" max="10" min="10" style="3" width="26.9285714285714"/>
+    <col customWidth="1" max="11" min="11" style="3" width="23.3571428571429"/>
+    <col customWidth="1" max="16384" min="12" style="3" width="9.142857142857141"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="16.8" r="1" s="1">
-      <c r="A1" s="3" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="16.8" r="1" s="2">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>token_data</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>request_header</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>server_return</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="155" r="2" s="1">
-      <c r="A2" s="4" t="n">
+    <row customFormat="1" customHeight="1" ht="155" r="2" s="2">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>发票信息配置</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>添加发票信息</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>purchaser-setting</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>/purchaser-setting</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>{"phone":"15733100728","code":"123456"}</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>{'Authorization': 'Bearer #token'}</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="I2" s="8" t="inlineStr">
         <is>
           <t>{
  "name": "#name",
@@ -1490,28 +1330,510 @@
 }</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="6" t="inlineStr">
         <is>
           <t>{'code': 200, 'msg': 'ok', 'data': True}</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="K2" s="6" t="inlineStr">
         <is>
           <t>{'code': 200, 'msg': 'ok', 'data': True}</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="155" r="3" s="2">
+      <c r="A3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>发票信息配置</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>添加发票信息时，收票单位不能重复</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>purchaser-setting</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>/purchaser-setting</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>{"phone":"15733100728","code":"123456"}</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>{'Authorization': 'Bearer #token'}</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>{
+ "name": "#name",
+ "duty_paragraph": "1122",
+ "address": "单位地址",
+ "phone": "15733100728",
+ "bank_name": "开户行",
+ "card_no": "1234"
+}</t>
+        </is>
+      </c>
+      <c r="J3" s="6" t="inlineStr">
+        <is>
+          <t>{"code":500,"msg":"\u6536\u7968\u5355\u4f4d\u91cd\u590d","data":""}</t>
+        </is>
+      </c>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>{'code': 200, 'msg': 'ok', 'data': True}</t>
+        </is>
+      </c>
+      <c r="L3" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="155" r="4" s="2">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>发票信息配置</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>添加发票信息时，收票单位不填写无法保存</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>purchaser-setting</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>/purchaser-setting</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>{"phone":"15733100728","code":"123456"}</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>{'Authorization': 'Bearer #token'}</t>
+        </is>
+      </c>
+      <c r="I4" s="8" t="inlineStr">
+        <is>
+          <t>{"name":"","duty_paragraph":"333"}</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>{"code":422,"msg":"\u8bf7\u8f93\u5165\u6536\u7968\u5355\u4f4d"}</t>
+        </is>
+      </c>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>{'code': 422, 'msg': '请输入收票单位'}</t>
+        </is>
+      </c>
+      <c r="L4" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="155" r="5" s="2">
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>发票信息配置</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>添加发票信息时，税号不填写无法保存</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>purchaser-setting</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>/purchaser-setting</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>{"phone":"15733100728","code":"123456"}</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>{'Authorization': 'Bearer #token'}</t>
+        </is>
+      </c>
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>{"name":"#name","duty_paragraph":""}</t>
+        </is>
+      </c>
+      <c r="J5" s="6" t="inlineStr">
+        <is>
+          <t>{"code":422,"msg":"\u8bf7\u8f93\u5165\u6536\u7968\u5355\u4f4d"}</t>
+        </is>
+      </c>
+      <c r="K5" s="6" t="inlineStr">
+        <is>
+          <t>{'code': 200, 'msg': 'ok', 'data': True}</t>
+        </is>
+      </c>
+      <c r="L5" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="155" r="6" s="2">
+      <c r="A6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>发票信息配置</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>添加发票信息时，收票单位填写空格提示“请输入收票单位”</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>purchaser-setting</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>/purchaser-setting</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>{"phone":"15733100728","code":"123456"}</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>{'Authorization': 'Bearer #token'}</t>
+        </is>
+      </c>
+      <c r="I6" s="8" t="inlineStr">
+        <is>
+          <t>{"name":" ","duty_paragraph":"555"}</t>
+        </is>
+      </c>
+      <c r="J6" s="6" t="inlineStr">
+        <is>
+          <t>{"code":422,"msg":"\u8bf7\u8f93\u5165\u6536\u7968\u5355\u4f4d"}</t>
+        </is>
+      </c>
+      <c r="K6" s="6" t="inlineStr">
+        <is>
+          <t>{'code': 422, 'msg': '请输入收票单位'}</t>
+        </is>
+      </c>
+      <c r="L6" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="155" r="7" s="2">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>发票信息配置</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>添加发票信息时，税号填写空格提示“请输入税号”</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>purchaser-setting</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>/purchaser-setting</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>{"phone":"15733100728","code":"123456"}</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>{'Authorization': 'Bearer #token'}</t>
+        </is>
+      </c>
+      <c r="I7" s="8" t="inlineStr">
+        <is>
+          <t>{"name":"# name","duty_paragraph":" "}</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>{"code":422,"msg":"\u8bf7\u8f93\u5165\u6536\u7968\u5355\u4f4d"}</t>
+        </is>
+      </c>
+      <c r="K7" s="6" t="inlineStr">
+        <is>
+          <t>{'code': 200, 'msg': 'ok', 'data': True}</t>
+        </is>
+      </c>
+      <c r="L7" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="155" r="8" s="2">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>发票信息配置</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>填写发票信息时，只填写收票单位，税号可以保存</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>purchaser-setting</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>/purchaser-setting</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>{"phone":"15733100728","code":"123456"}</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>{'Authorization': 'Bearer #token'}</t>
+        </is>
+      </c>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>{"name":"# name","duty_paragraph":" 777"}</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>{'code': 200, 'msg': 'ok', 'data': True}</t>
+        </is>
+      </c>
+      <c r="K8" s="6" t="inlineStr">
+        <is>
+          <t>{'code': 500, 'msg': '收票单位重复', 'data': ''}</t>
+        </is>
+      </c>
+      <c r="L8" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="155" r="9" s="2">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>发票信息配置</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>添加发票信息时，填写所有字段，数据保存正确</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>purchaser-setting</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>/purchaser-setting</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>{"phone":"15733100728","code":"123456"}</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>{'Authorization': 'Bearer #token'}</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>{
+ "name": "#name",
+ "duty_paragraph": "888",
+ "address": "单位地址",
+ "phone": "15733100728",
+ "bank_name": "开户行",
+ "card_no": "1234"
+}</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="n"/>
+      <c r="K9" s="6" t="inlineStr">
+        <is>
+          <t>{'code': 200, 'msg': 'ok', 'data': True}</t>
+        </is>
+      </c>
+      <c r="L9" s="6" t="n"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L3">
+    <cfRule dxfId="1" operator="between" priority="14" text="PASS" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("PASS",L3)))</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="between" priority="13" text="FAIL" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("FAIL",L3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule dxfId="1" operator="between" priority="12" text="PASS" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("PASS",L4)))</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="between" priority="6" text="FAIL" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("FAIL",L4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule dxfId="1" operator="between" priority="11" text="PASS" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("PASS",L5)))</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="between" priority="5" text="FAIL" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("FAIL",L5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule dxfId="1" operator="between" priority="10" text="PASS" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("PASS",L6)))</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="between" priority="4" text="FAIL" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("FAIL",L6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule dxfId="1" operator="between" priority="9" text="PASS" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("PASS",L7)))</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="between" priority="3" text="FAIL" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("FAIL",L7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule dxfId="1" operator="between" priority="8" text="PASS" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("PASS",L8)))</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="between" priority="2" text="FAIL" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("FAIL",L8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule dxfId="1" operator="between" priority="7" text="PASS" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("PASS",L9)))</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="between" priority="1" text="FAIL" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("FAIL",L9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L2">
-    <cfRule dxfId="0" operator="between" priority="5" text="FAIL" type="containsText">
+    <cfRule dxfId="0" operator="between" priority="61" text="FAIL" type="containsText">
       <formula>NOT(ISERROR(SEARCH("FAIL",L1)))</formula>
     </cfRule>
-    <cfRule dxfId="1" operator="between" priority="6" text="PASS" type="containsText">
+    <cfRule dxfId="1" operator="between" priority="62" text="PASS" type="containsText">
       <formula>NOT(ISERROR(SEARCH("PASS",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/test_cases.xlsx
+++ b/data/test_cases.xlsx
@@ -1644,7 +1644,7 @@
       </c>
       <c r="K7" s="6" t="inlineStr">
         <is>
-          <t>{'code': 200, 'msg': 'ok', 'data': True}</t>
+          <t>{'code': 500, 'msg': '收票单位重复', 'data': ''}</t>
         </is>
       </c>
       <c r="L7" s="6" t="inlineStr">

--- a/data/test_cases.xlsx
+++ b/data/test_cases.xlsx
@@ -3,11 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="11620" windowWidth="28000"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="14100" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="purchaser-setting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="tax" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -33,8 +34,16 @@
     </font>
     <font>
       <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -43,6 +52,13 @@
       <charset val="134"/>
       <color theme="1"/>
       <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -56,14 +72,14 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -77,9 +93,79 @@
     </font>
     <font>
       <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -92,96 +178,11 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="0"/>
       <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -204,13 +205,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,19 +247,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,145 +373,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,22 +418,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,29 +449,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,16 +497,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -513,176 +514,167 @@
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="33" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="34" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="11" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="34" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="20" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="19" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="34" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="24" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="19" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="12" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1045,137 +1037,137 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.830357142857141" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="9" width="8.830357142857141"/>
-    <col customWidth="1" max="2" min="2" style="9" width="11.8303571428571"/>
-    <col customWidth="1" max="3" min="3" style="9" width="27.3303571428571"/>
-    <col customWidth="1" max="4" min="4" style="9" width="12"/>
-    <col customWidth="1" max="5" min="5" style="9" width="10.1607142857143"/>
-    <col customWidth="1" max="6" min="6" style="9" width="24.6607142857143"/>
-    <col customWidth="1" max="7" min="7" style="9" width="55.6607142857143"/>
-    <col customWidth="1" max="8" min="8" style="9" width="62.3571428571429"/>
-    <col customWidth="1" max="9" min="9" style="9" width="19.8303571428571"/>
-    <col customWidth="1" max="16384" min="10" style="9" width="8.830357142857141"/>
+    <col customWidth="1" max="1" min="1" style="6" width="8.830357142857141"/>
+    <col customWidth="1" max="2" min="2" style="6" width="11.8303571428571"/>
+    <col customWidth="1" max="3" min="3" style="6" width="27.3303571428571"/>
+    <col customWidth="1" max="4" min="4" style="6" width="12"/>
+    <col customWidth="1" max="5" min="5" style="6" width="10.1607142857143"/>
+    <col customWidth="1" max="6" min="6" style="6" width="24.6607142857143"/>
+    <col customWidth="1" max="7" min="7" style="6" width="55.6607142857143"/>
+    <col customWidth="1" max="8" min="8" style="6" width="62.3571428571429"/>
+    <col customWidth="1" max="9" min="9" style="6" width="19.8303571428571"/>
+    <col customWidth="1" max="16384" min="10" style="6" width="8.830357142857141"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="I1" s="10" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>server_return</t>
         </is>
       </c>
-      <c r="J1" s="10" t="inlineStr">
+      <c r="J1" s="7" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="34" r="2">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>正常登录</t>
         </is>
       </c>
-      <c r="D2" s="14" t="inlineStr">
+      <c r="D2" s="11" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E2" s="14" t="inlineStr">
+      <c r="E2" s="11" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F2" s="14" t="inlineStr">
+      <c r="F2" s="11" t="inlineStr">
         <is>
           <t>/auth/login</t>
         </is>
       </c>
-      <c r="G2" s="12" t="inlineStr">
+      <c r="G2" s="9" t="inlineStr">
         <is>
           <t>{"phone":"15733100728","code":"123456"}</t>
         </is>
       </c>
-      <c r="H2" s="15" t="inlineStr">
+      <c r="H2" s="12" t="inlineStr">
         <is>
           <t>{ "code": 200,
  "msg": "ok"}</t>
         </is>
       </c>
-      <c r="I2" s="12" t="inlineStr">
+      <c r="I2" s="9" t="inlineStr">
         <is>
           <t>{'code': 200, 'msg': 'ok'}</t>
         </is>
       </c>
-      <c r="J2" s="12" t="inlineStr">
+      <c r="J2" s="9" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="K2" s="16" t="inlineStr">
+      <c r="K2" s="13" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
-      <c r="L2" s="16" t="n"/>
-      <c r="M2" s="16" t="n"/>
-      <c r="N2" s="16" t="n"/>
-      <c r="O2" s="16" t="n"/>
-      <c r="P2" s="16" t="n"/>
-      <c r="Q2" s="16" t="n"/>
+      <c r="L2" s="13" t="n"/>
+      <c r="M2" s="13" t="n"/>
+      <c r="N2" s="13" t="n"/>
+      <c r="O2" s="13" t="n"/>
+      <c r="P2" s="13" t="n"/>
+      <c r="Q2" s="13" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
@@ -1199,126 +1191,126 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="9.142857142857141"/>
-    <col customWidth="1" max="2" min="2" style="3" width="16.3660714285714"/>
-    <col customWidth="1" max="3" min="3" style="3" width="47.0178571428571"/>
-    <col customWidth="1" max="4" min="4" style="3" width="18.7410714285714"/>
-    <col customWidth="1" max="5" min="5" style="3" width="9.142857142857141"/>
-    <col customWidth="1" max="8" min="6" style="3" width="21.7232142857143"/>
-    <col customWidth="1" max="9" min="9" style="3" width="40.625"/>
-    <col customWidth="1" max="10" min="10" style="3" width="26.9285714285714"/>
-    <col customWidth="1" max="11" min="11" style="3" width="23.3571428571429"/>
-    <col customWidth="1" max="16384" min="12" style="3" width="9.142857142857141"/>
+    <col customWidth="1" max="1" min="1" style="5" width="9.142857142857141"/>
+    <col customWidth="1" max="2" min="2" style="5" width="16.3660714285714"/>
+    <col customWidth="1" max="3" min="3" style="5" width="47.0178571428571"/>
+    <col customWidth="1" max="4" min="4" style="5" width="18.7410714285714"/>
+    <col customWidth="1" max="5" min="5" style="5" width="9.142857142857141"/>
+    <col customWidth="1" max="8" min="6" style="5" width="21.7232142857143"/>
+    <col customWidth="1" max="9" min="9" style="5" width="40.625"/>
+    <col customWidth="1" max="10" min="10" style="5" width="26.9285714285714"/>
+    <col customWidth="1" max="11" min="11" style="5" width="23.3571428571429"/>
+    <col customWidth="1" max="16384" min="12" style="5" width="9.142857142857141"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="16.8" r="1" s="2">
-      <c r="A1" s="4" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="16.8" r="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>token_data</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>request_header</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>server_return</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="155" r="2" s="2">
-      <c r="A2" s="6" t="n">
+    <row customFormat="1" customHeight="1" ht="155" r="2" s="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>发票信息配置</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>添加发票信息</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>purchaser-setting</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>/purchaser-setting</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>{"phone":"15733100728","code":"123456"}</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>{'Authorization': 'Bearer #token'}</t>
         </is>
       </c>
-      <c r="I2" s="8" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>{
  "name": "#name",
@@ -1330,62 +1322,54 @@
 }</t>
         </is>
       </c>
-      <c r="J2" s="6" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>{'code': 200, 'msg': 'ok', 'data': True}</t>
         </is>
       </c>
-      <c r="K2" s="6" t="inlineStr">
-        <is>
-          <t>{'code': 200, 'msg': 'ok', 'data': True}</t>
-        </is>
-      </c>
-      <c r="L2" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="155" r="3" s="2">
-      <c r="A3" s="6" t="n">
+    <row customFormat="1" customHeight="1" ht="155" r="3" s="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>发票信息配置</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>添加发票信息时，收票单位不能重复</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>purchaser-setting</t>
         </is>
       </c>
-      <c r="E3" s="6" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F3" s="6" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>/purchaser-setting</t>
         </is>
       </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>{"phone":"15733100728","code":"123456"}</t>
         </is>
       </c>
-      <c r="H3" s="6" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>{'Authorization': 'Bearer #token'}</t>
         </is>
       </c>
-      <c r="I3" s="8" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>{
  "name": "#name",
@@ -1397,362 +1381,314 @@
 }</t>
         </is>
       </c>
-      <c r="J3" s="6" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>{"code":500,"msg":"\u6536\u7968\u5355\u4f4d\u91cd\u590d","data":""}</t>
         </is>
       </c>
-      <c r="K3" s="6" t="inlineStr">
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="155" r="4" s="1">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>发票信息配置</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>添加发票信息时，收票单位不填写无法保存</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>purchaser-setting</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>/purchaser-setting</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>{"phone":"15733100728","code":"123456"}</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>{'Authorization': 'Bearer #token'}</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>{"name":"","duty_paragraph":"333"}</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>{"code":422,"msg":"\u8bf7\u8f93\u5165\u6536\u7968\u5355\u4f4d"}</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="155" r="5" s="1">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>发票信息配置</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>添加发票信息时，税号不填写无法保存</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>purchaser-setting</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>/purchaser-setting</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>{"phone":"15733100728","code":"123456"}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>{'Authorization': 'Bearer #token'}</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>{"name":"#name","duty_paragraph":""}</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>{"code":422,"msg":"\u8bf7\u8f93\u5165\u6536\u7968\u5355\u4f4d"}</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="155" r="6" s="1">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>发票信息配置</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>添加发票信息时，收票单位填写空格提示“请输入收票单位”</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>purchaser-setting</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>/purchaser-setting</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>{"phone":"15733100728","code":"123456"}</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>{'Authorization': 'Bearer #token'}</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>{"name":" ","duty_paragraph":"555"}</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>{"code":422,"msg":"\u8bf7\u8f93\u5165\u6536\u7968\u5355\u4f4d"}</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="155" r="7" s="1">
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>发票信息配置</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>添加发票信息时，税号填写空格提示“请输入税号”</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>purchaser-setting</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>/purchaser-setting</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>{"phone":"15733100728","code":"123456"}</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>{'Authorization': 'Bearer #token'}</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>{"name":"# name","duty_paragraph":" "}</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>{"code":422,"msg":"\u8bf7\u8f93\u5165\u6536\u7968\u5355\u4f4d"}</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="155" r="8" s="1">
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>发票信息配置</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>填写发票信息时，只填写收票单位，税号可以保存</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>purchaser-setting</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>/purchaser-setting</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>{"phone":"15733100728","code":"123456"}</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>{'Authorization': 'Bearer #token'}</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>{"name":"# name","duty_paragraph":" 777"}</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>{'code': 200, 'msg': 'ok', 'data': True}</t>
         </is>
       </c>
-      <c r="L3" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
+      <c r="K8" s="3" t="n"/>
+      <c r="L8" s="3" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="155" r="4" s="2">
-      <c r="A4" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="155" r="9" s="1">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>发票信息配置</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>添加发票信息时，收票单位不填写无法保存</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>添加发票信息时，填写所有字段，数据保存正确</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>purchaser-setting</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>/purchaser-setting</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>{"phone":"15733100728","code":"123456"}</t>
         </is>
       </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>{'Authorization': 'Bearer #token'}</t>
         </is>
       </c>
-      <c r="I4" s="8" t="inlineStr">
-        <is>
-          <t>{"name":"","duty_paragraph":"333"}</t>
-        </is>
-      </c>
-      <c r="J4" s="6" t="inlineStr">
-        <is>
-          <t>{"code":422,"msg":"\u8bf7\u8f93\u5165\u6536\u7968\u5355\u4f4d"}</t>
-        </is>
-      </c>
-      <c r="K4" s="6" t="inlineStr">
-        <is>
-          <t>{'code': 422, 'msg': '请输入收票单位'}</t>
-        </is>
-      </c>
-      <c r="L4" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="155" r="5" s="2">
-      <c r="A5" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>发票信息配置</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>添加发票信息时，税号不填写无法保存</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>purchaser-setting</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>/purchaser-setting</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>{"phone":"15733100728","code":"123456"}</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="inlineStr">
-        <is>
-          <t>{'Authorization': 'Bearer #token'}</t>
-        </is>
-      </c>
-      <c r="I5" s="8" t="inlineStr">
-        <is>
-          <t>{"name":"#name","duty_paragraph":""}</t>
-        </is>
-      </c>
-      <c r="J5" s="6" t="inlineStr">
-        <is>
-          <t>{"code":422,"msg":"\u8bf7\u8f93\u5165\u6536\u7968\u5355\u4f4d"}</t>
-        </is>
-      </c>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>{'code': 200, 'msg': 'ok', 'data': True}</t>
-        </is>
-      </c>
-      <c r="L5" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="155" r="6" s="2">
-      <c r="A6" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>发票信息配置</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>添加发票信息时，收票单位填写空格提示“请输入收票单位”</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>purchaser-setting</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>/purchaser-setting</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>{"phone":"15733100728","code":"123456"}</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>{'Authorization': 'Bearer #token'}</t>
-        </is>
-      </c>
-      <c r="I6" s="8" t="inlineStr">
-        <is>
-          <t>{"name":" ","duty_paragraph":"555"}</t>
-        </is>
-      </c>
-      <c r="J6" s="6" t="inlineStr">
-        <is>
-          <t>{"code":422,"msg":"\u8bf7\u8f93\u5165\u6536\u7968\u5355\u4f4d"}</t>
-        </is>
-      </c>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>{'code': 422, 'msg': '请输入收票单位'}</t>
-        </is>
-      </c>
-      <c r="L6" s="6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="155" r="7" s="2">
-      <c r="A7" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>发票信息配置</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>添加发票信息时，税号填写空格提示“请输入税号”</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>purchaser-setting</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>/purchaser-setting</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
-          <t>{"phone":"15733100728","code":"123456"}</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>{'Authorization': 'Bearer #token'}</t>
-        </is>
-      </c>
-      <c r="I7" s="8" t="inlineStr">
-        <is>
-          <t>{"name":"# name","duty_paragraph":" "}</t>
-        </is>
-      </c>
-      <c r="J7" s="6" t="inlineStr">
-        <is>
-          <t>{"code":422,"msg":"\u8bf7\u8f93\u5165\u6536\u7968\u5355\u4f4d"}</t>
-        </is>
-      </c>
-      <c r="K7" s="6" t="inlineStr">
-        <is>
-          <t>{'code': 500, 'msg': '收票单位重复', 'data': ''}</t>
-        </is>
-      </c>
-      <c r="L7" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="155" r="8" s="2">
-      <c r="A8" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>发票信息配置</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>填写发票信息时，只填写收票单位，税号可以保存</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>purchaser-setting</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>/purchaser-setting</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
-          <t>{"phone":"15733100728","code":"123456"}</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>{'Authorization': 'Bearer #token'}</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>{"name":"# name","duty_paragraph":" 777"}</t>
-        </is>
-      </c>
-      <c r="J8" s="6" t="inlineStr">
-        <is>
-          <t>{'code': 200, 'msg': 'ok', 'data': True}</t>
-        </is>
-      </c>
-      <c r="K8" s="6" t="inlineStr">
-        <is>
-          <t>{'code': 500, 'msg': '收票单位重复', 'data': ''}</t>
-        </is>
-      </c>
-      <c r="L8" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="155" r="9" s="2">
-      <c r="A9" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>发票信息配置</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>添加发票信息时，填写所有字段，数据保存正确</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>purchaser-setting</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>/purchaser-setting</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="inlineStr">
-        <is>
-          <t>{"phone":"15733100728","code":"123456"}</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="inlineStr">
-        <is>
-          <t>{'Authorization': 'Bearer #token'}</t>
-        </is>
-      </c>
-      <c r="I9" s="8" t="inlineStr">
+      <c r="I9" s="4" t="inlineStr">
         <is>
           <t>{
  "name": "#name",
@@ -1764,13 +1700,9 @@
 }</t>
         </is>
       </c>
-      <c r="J9" s="6" t="n"/>
-      <c r="K9" s="6" t="inlineStr">
-        <is>
-          <t>{'code': 200, 'msg': 'ok', 'data': True}</t>
-        </is>
-      </c>
-      <c r="L9" s="6" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L3">
@@ -1839,4 +1771,209 @@
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.4" outlineLevelRow="2"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="23.5089285714286"/>
+    <col customWidth="1" max="3" min="3" width="39.4285714285714"/>
+    <col customWidth="1" max="4" min="4" width="15.4732142857143"/>
+    <col customWidth="1" max="5" min="5" width="13.9821428571429"/>
+    <col customWidth="1" max="6" min="6" width="18.5892857142857"/>
+    <col customWidth="1" max="7" min="7" width="18.3035714285714"/>
+    <col customWidth="1" max="8" min="8" width="16.0714285714286"/>
+    <col customWidth="1" max="9" min="9" width="27.375"/>
+    <col customWidth="1" max="10" min="10" width="27.0803571428571"/>
+    <col customWidth="1" max="11" min="11" width="25.8839285714286"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="16.8" r="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>api_name</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>token_data</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>request_header</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>request_data</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>expected_data</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>server_return</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="155" r="2" s="1">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>报税管理</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>获取报税详情1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>purchaser-setting</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>/red-count</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{"phone":"15733100728","code":"123456"}</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>{'Authorization': 'Bearer #token'}</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 200, 'msg': 'ok'}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="16.8" r="3">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>报税管理</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>获取报税详情2</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>purchaser-setting</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>/tax/422</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>{"phone":"15733100728","code":"123456"}</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>{'Authorization': 'Bearer #token'}</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>{ "code": 200,  "msg": "ok"}</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L3">
+    <cfRule dxfId="1" operator="between" priority="2" text="PASS" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("PASS",L3)))</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="between" priority="1" text="FAIL" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("FAIL",L3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L2">
+    <cfRule dxfId="1" operator="between" priority="4" text="PASS" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("PASS",L1)))</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="between" priority="3" text="FAIL" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("FAIL",L1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/data/test_cases.xlsx
+++ b/data/test_cases.xlsx
@@ -1906,8 +1906,16 @@
           <t>{'code': 200, 'msg': 'ok'}</t>
         </is>
       </c>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 200, 'msg': 'ok'}</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="16.8" r="3">
       <c r="A3" s="3" t="n">
@@ -1954,8 +1962,16 @@
           <t>{ "code": 200,  "msg": "ok"}</t>
         </is>
       </c>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>{'code': 200, 'msg': 'ok'}</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L3">

--- a/data/test_cases.xlsx
+++ b/data/test_cases.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="14100" windowWidth="28800"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="13200" windowWidth="26120"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="purchaser-setting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="tax" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="seller-setting" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="template-download" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -27,6 +29,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
       <color theme="1"/>
@@ -34,16 +44,15 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -57,106 +66,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -173,7 +83,99 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,187 +207,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,8 +419,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,23 +428,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,6 +454,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,188 +516,191 @@
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="20" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="19" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="29" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="34" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="11" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="9" fillId="24" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="19" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="11" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="14" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1037,137 +1042,137 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
+    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.830357142857141" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="8.830357142857141"/>
-    <col customWidth="1" max="2" min="2" style="6" width="11.8303571428571"/>
-    <col customWidth="1" max="3" min="3" style="6" width="27.3303571428571"/>
-    <col customWidth="1" max="4" min="4" style="6" width="12"/>
-    <col customWidth="1" max="5" min="5" style="6" width="10.1607142857143"/>
-    <col customWidth="1" max="6" min="6" style="6" width="24.6607142857143"/>
-    <col customWidth="1" max="7" min="7" style="6" width="55.6607142857143"/>
-    <col customWidth="1" max="8" min="8" style="6" width="62.3571428571429"/>
-    <col customWidth="1" max="9" min="9" style="6" width="19.8303571428571"/>
-    <col customWidth="1" max="16384" min="10" style="6" width="8.830357142857141"/>
+    <col customWidth="1" max="1" min="1" style="7" width="8.830357142857141"/>
+    <col customWidth="1" max="2" min="2" style="7" width="11.8303571428571"/>
+    <col customWidth="1" max="3" min="3" style="7" width="27.3303571428571"/>
+    <col customWidth="1" max="4" min="4" style="7" width="12"/>
+    <col customWidth="1" max="5" min="5" style="7" width="10.1607142857143"/>
+    <col customWidth="1" max="6" min="6" style="7" width="24.6607142857143"/>
+    <col customWidth="1" max="7" min="7" style="7" width="55.6607142857143"/>
+    <col customWidth="1" max="8" min="8" style="7" width="62.3571428571429"/>
+    <col customWidth="1" max="9" min="9" style="7" width="19.8303571428571"/>
+    <col customWidth="1" max="16384" min="10" style="7" width="8.830357142857141"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="8" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="8" t="inlineStr">
         <is>
           <t>server_return</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="8" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="34" r="2">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="C2" s="12" t="inlineStr">
         <is>
           <t>正常登录</t>
         </is>
       </c>
-      <c r="D2" s="11" t="inlineStr">
+      <c r="D2" s="12" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E2" s="11" t="inlineStr">
+      <c r="E2" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F2" s="12" t="inlineStr">
         <is>
           <t>/auth/login</t>
         </is>
       </c>
-      <c r="G2" s="9" t="inlineStr">
+      <c r="G2" s="10" t="inlineStr">
         <is>
           <t>{"phone":"15733100728","code":"123456"}</t>
         </is>
       </c>
-      <c r="H2" s="12" t="inlineStr">
+      <c r="H2" s="13" t="inlineStr">
         <is>
           <t>{ "code": 200,
  "msg": "ok"}</t>
         </is>
       </c>
-      <c r="I2" s="9" t="inlineStr">
-        <is>
-          <t>{'code': 200, 'msg': 'ok'}</t>
-        </is>
-      </c>
-      <c r="J2" s="9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K2" s="13" t="inlineStr">
+      <c r="I2" s="10" t="inlineStr">
+        <is>
+          <t>{'code': 500, 'msg': '登录失败'}</t>
+        </is>
+      </c>
+      <c r="J2" s="10" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="K2" s="14" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
-      <c r="L2" s="13" t="n"/>
-      <c r="M2" s="13" t="n"/>
-      <c r="N2" s="13" t="n"/>
-      <c r="O2" s="13" t="n"/>
-      <c r="P2" s="13" t="n"/>
-      <c r="Q2" s="13" t="n"/>
+      <c r="L2" s="14" t="n"/>
+      <c r="M2" s="14" t="n"/>
+      <c r="N2" s="14" t="n"/>
+      <c r="O2" s="14" t="n"/>
+      <c r="P2" s="14" t="n"/>
+      <c r="Q2" s="14" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
@@ -1191,126 +1196,126 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="9.142857142857141"/>
-    <col customWidth="1" max="2" min="2" style="5" width="16.3660714285714"/>
-    <col customWidth="1" max="3" min="3" style="5" width="47.0178571428571"/>
-    <col customWidth="1" max="4" min="4" style="5" width="18.7410714285714"/>
-    <col customWidth="1" max="5" min="5" style="5" width="9.142857142857141"/>
-    <col customWidth="1" max="8" min="6" style="5" width="21.7232142857143"/>
-    <col customWidth="1" max="9" min="9" style="5" width="40.625"/>
-    <col customWidth="1" max="10" min="10" style="5" width="26.9285714285714"/>
-    <col customWidth="1" max="11" min="11" style="5" width="23.3571428571429"/>
-    <col customWidth="1" max="16384" min="12" style="5" width="9.142857142857141"/>
+    <col customWidth="1" max="1" min="1" style="6" width="9.142857142857141"/>
+    <col customWidth="1" max="2" min="2" style="6" width="16.3660714285714"/>
+    <col customWidth="1" max="3" min="3" style="6" width="47.0178571428571"/>
+    <col customWidth="1" max="4" min="4" style="6" width="18.7410714285714"/>
+    <col customWidth="1" max="5" min="5" style="6" width="9.142857142857141"/>
+    <col customWidth="1" max="8" min="6" style="6" width="21.7232142857143"/>
+    <col customWidth="1" max="9" min="9" style="6" width="40.625"/>
+    <col customWidth="1" max="10" min="10" style="6" width="26.9285714285714"/>
+    <col customWidth="1" max="11" min="11" style="6" width="23.3571428571429"/>
+    <col customWidth="1" max="16384" min="12" style="6" width="9.142857142857141"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="16.8" r="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="16.8" r="1" s="2">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>token_data</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>request_header</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>server_return</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="155" r="2" s="1">
-      <c r="A2" s="3" t="n">
+    <row customFormat="1" customHeight="1" ht="155" r="2" s="2">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>发票信息配置</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>添加发票信息</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>purchaser-setting</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>/purchaser-setting</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>{"phone":"15733100728","code":"123456"}</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>{'Authorization': 'Bearer #token'}</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>{
  "name": "#name",
@@ -1322,54 +1327,54 @@
 }</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>{'code': 200, 'msg': 'ok', 'data': True}</t>
         </is>
       </c>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="155" r="3" s="1">
-      <c r="A3" s="3" t="n">
+    <row customFormat="1" customHeight="1" ht="155" r="3" s="2">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>发票信息配置</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>添加发票信息时，收票单位不能重复</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>purchaser-setting</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>/purchaser-setting</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>{"phone":"15733100728","code":"123456"}</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>{'Authorization': 'Bearer #token'}</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>{
  "name": "#name",
@@ -1381,314 +1386,314 @@
 }</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>{"code":500,"msg":"\u6536\u7968\u5355\u4f4d\u91cd\u590d","data":""}</t>
         </is>
       </c>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="155" r="4" s="1">
-      <c r="A4" s="3" t="n">
+    <row customFormat="1" customHeight="1" ht="155" r="4" s="2">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>发票信息配置</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>添加发票信息时，收票单位不填写无法保存</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>purchaser-setting</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>/purchaser-setting</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>{"phone":"15733100728","code":"123456"}</t>
         </is>
       </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>{'Authorization': 'Bearer #token'}</t>
         </is>
       </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="I4" s="5" t="inlineStr">
         <is>
           <t>{"name":"","duty_paragraph":"333"}</t>
         </is>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>{"code":422,"msg":"\u8bf7\u8f93\u5165\u6536\u7968\u5355\u4f4d"}</t>
         </is>
       </c>
-      <c r="K4" s="3" t="n"/>
-      <c r="L4" s="3" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="155" r="5" s="1">
-      <c r="A5" s="3" t="n">
+    <row customFormat="1" customHeight="1" ht="155" r="5" s="2">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>发票信息配置</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>添加发票信息时，税号不填写无法保存</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>purchaser-setting</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>/purchaser-setting</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>{"phone":"15733100728","code":"123456"}</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>{'Authorization': 'Bearer #token'}</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="I5" s="5" t="inlineStr">
         <is>
           <t>{"name":"#name","duty_paragraph":""}</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>{"code":422,"msg":"\u8bf7\u8f93\u5165\u6536\u7968\u5355\u4f4d"}</t>
         </is>
       </c>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="3" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="155" r="6" s="1">
-      <c r="A6" s="3" t="n">
+    <row customFormat="1" customHeight="1" ht="155" r="6" s="2">
+      <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>发票信息配置</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>添加发票信息时，收票单位填写空格提示“请输入收票单位”</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>purchaser-setting</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>/purchaser-setting</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>{"phone":"15733100728","code":"123456"}</t>
         </is>
       </c>
-      <c r="H6" s="3" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>{'Authorization': 'Bearer #token'}</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I6" s="5" t="inlineStr">
         <is>
           <t>{"name":" ","duty_paragraph":"555"}</t>
         </is>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>{"code":422,"msg":"\u8bf7\u8f93\u5165\u6536\u7968\u5355\u4f4d"}</t>
         </is>
       </c>
-      <c r="K6" s="3" t="n"/>
-      <c r="L6" s="3" t="n"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="155" r="7" s="1">
-      <c r="A7" s="3" t="n">
+    <row customFormat="1" customHeight="1" ht="155" r="7" s="2">
+      <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>发票信息配置</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>添加发票信息时，税号填写空格提示“请输入税号”</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>purchaser-setting</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>/purchaser-setting</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>{"phone":"15733100728","code":"123456"}</t>
         </is>
       </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>{'Authorization': 'Bearer #token'}</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr">
+      <c r="I7" s="5" t="inlineStr">
         <is>
           <t>{"name":"# name","duty_paragraph":" "}</t>
         </is>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>{"code":422,"msg":"\u8bf7\u8f93\u5165\u6536\u7968\u5355\u4f4d"}</t>
         </is>
       </c>
-      <c r="K7" s="3" t="n"/>
-      <c r="L7" s="3" t="n"/>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="155" r="8" s="1">
-      <c r="A8" s="3" t="n">
+    <row customFormat="1" customHeight="1" ht="155" r="8" s="2">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>发票信息配置</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>填写发票信息时，只填写收票单位，税号可以保存</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>purchaser-setting</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>/purchaser-setting</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>{"phone":"15733100728","code":"123456"}</t>
         </is>
       </c>
-      <c r="H8" s="3" t="inlineStr">
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>{'Authorization': 'Bearer #token'}</t>
         </is>
       </c>
-      <c r="I8" s="4" t="inlineStr">
+      <c r="I8" s="5" t="inlineStr">
         <is>
           <t>{"name":"# name","duty_paragraph":" 777"}</t>
         </is>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>{'code': 200, 'msg': 'ok', 'data': True}</t>
         </is>
       </c>
-      <c r="K8" s="3" t="n"/>
-      <c r="L8" s="3" t="n"/>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="155" r="9" s="1">
-      <c r="A9" s="3" t="n">
+    <row customFormat="1" customHeight="1" ht="155" r="9" s="2">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>发票信息配置</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>添加发票信息时，填写所有字段，数据保存正确</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>purchaser-setting</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>/purchaser-setting</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>{"phone":"15733100728","code":"123456"}</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>{'Authorization': 'Bearer #token'}</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr">
+      <c r="I9" s="5" t="inlineStr">
         <is>
           <t>{
  "name": "#name",
@@ -1700,9 +1705,9 @@
 }</t>
         </is>
       </c>
-      <c r="J9" s="3" t="n"/>
-      <c r="K9" s="3" t="n"/>
-      <c r="L9" s="3" t="n"/>
+      <c r="J9" s="4" t="n"/>
+      <c r="K9" s="4" t="n"/>
+      <c r="L9" s="4" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L3">
@@ -1781,8 +1786,8 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.4" outlineLevelRow="2"/>
@@ -1799,175 +1804,175 @@
     <col customWidth="1" max="11" min="11" width="25.8839285714286"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="16.8" r="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="16.8" r="1" s="2">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>api_name</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>token_data</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>request_header</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>server_return</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="155" r="2" s="1">
-      <c r="A2" s="3" t="n">
+    <row customFormat="1" customHeight="1" ht="155" r="2" s="2">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>报税管理</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>获取报税详情1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>purchaser-setting</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>/red-count</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>{"phone":"15733100728","code":"123456"}</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>{'Authorization': 'Bearer #token'}</t>
         </is>
       </c>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>{'code': 200, 'msg': 'ok'}</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>{'code': 200, 'msg': 'ok'}</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.8" r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>报税管理</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>获取报税详情2</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>purchaser-setting</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>/tax/422</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>{"phone":"15733100728","code":"123456"}</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>{'Authorization': 'Bearer #token'}</t>
         </is>
       </c>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>{ "code": 200,  "msg": "ok"}</t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>{'code': 200, 'msg': 'ok'}</t>
         </is>
       </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1992,4 +1997,250 @@
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.4" outlineLevelRow="2"/>
+  <cols>
+    <col customWidth="1" max="3" min="3" width="29.1607142857143"/>
+    <col customWidth="1" max="4" min="4" width="19.3392857142857"/>
+    <col customWidth="1" max="5" min="5" width="8.633928571428569"/>
+    <col customWidth="1" max="6" min="6" width="19.4821428571429"/>
+    <col customWidth="1" max="7" min="7" width="14.5803571428571"/>
+    <col customWidth="1" max="8" min="8" width="13.8303571428571"/>
+    <col customWidth="1" max="9" min="9" width="19.1875"/>
+    <col customWidth="1" max="10" min="10" width="20.9732142857143"/>
+    <col customWidth="1" max="11" min="11" width="15.6160714285714"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="16.8" r="1" s="2">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>api_name</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>token_data</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>request_header</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>request_data</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>expected_data</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>server_return</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.8" r="2" s="2">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>发票信息配置</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>配置销售方发票信息</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>purchaser-setting</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>/seller-setting/21/edit</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>{"phone":"15733100728","code":"123456"}</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>{'Authorization': 'Bearer #token'}</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>{'code': 200, 'msg': 'ok', 'data': {'id': 21, 'customer_id': 34, 'company_id': 22, 'duty_paragraph': '12345', 'address': '单位地址1', 'phone': '15733100728', 'bank_name': '开户行1', 'card_no': '123456', 'payee': '收款人1', 'reviewer': '复核人1', 'drawer': '开票人1', 'name': '客户022落落零零落落零零落落啦啦啦'}}</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': '数据不存在'}</t>
+        </is>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="155" r="3" s="2">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>发票信息配置</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>配置销售方发票信息</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>purchaser-setting</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>/seller-setting/21</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>{"phone":"15733100728","code":"123456"}</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>{'Authorization': 'Bearer #token'}</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>{'id': 21, 'customer_id': 34, 'company_id': 22, 'duty_paragraph': '123456666677', 'address': '单位地址16666677', 'phone': '15733100728', 'bank_name': '开户行16666677', 'card_no': '1234566666677', 'payee': '收款人16666677', 'reviewer': '复核人16666677', 'drawer': '开票人16666677', 'name': '客户022落落零零落落零零落落啦啦啦'}</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>{
+ "code": 200,
+ "msg": "ok",
+ "data": "true"
+}</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>{'code': 422, 'msg': '请输入出票单位'}</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L1:L3">
+    <cfRule dxfId="0" operator="between" priority="1" text="FAIL" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("FAIL",L1)))</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="between" priority="2" text="PASS" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("PASS",L1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="G35:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.4"/>
+  <sheetData>
+    <row r="35">
+      <c r="G35" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>